--- a/System analysis and design/Manual Test Cases Team2 Automation Exercise.xlsx
+++ b/System analysis and design/Manual Test Cases Team2 Automation Exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\college\depi project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\college\Github\ecommerce-ui-testing\System analysis and design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E00EE-670A-4FDF-9A5B-C4AEEA4FFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415A22C-6620-41B5-B0E4-549B46E51525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -6573,9 +6573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A4:A8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.21875" defaultRowHeight="25.8"/>
@@ -11493,7 +11493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8698C9E-3474-4427-B7CB-869CD597EA0D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="26" zoomScaleNormal="50" zoomScaleSheetLayoutView="30" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
